--- a/dtpu_configurations/only_integer32/100mhz/mxu_3x3/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_3x3/utilization.xlsx
@@ -118,7 +118,7 @@
     <col min="3" max="3" width="10.46875" customWidth="true"/>
     <col min="4" max="4" width="11.71875" customWidth="true"/>
     <col min="5" max="5" width="11.71875" customWidth="true"/>
-    <col min="6" max="6" width="10.46875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
     <col min="7" max="7" width="10.46875" customWidth="true"/>
     <col min="8" max="8" width="10.46875" customWidth="true"/>
   </cols>
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>16.528194427490234</v>
+        <v>18.48872184753418</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.11936092376709</v>
+        <v>12.723684310913086</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>34.28571701049805</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.7272727489471436</v>
+        <v>12.272727966308594</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
